--- a/project/files/anova_results/statistical_results.xlsx
+++ b/project/files/anova_results/statistical_results.xlsx
@@ -482,132 +482,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>29.98722222222223</v>
+        <v>23.63375</v>
       </c>
       <c r="C2" t="n">
-        <v>12.35014717261236</v>
+        <v>6.109949065202188</v>
       </c>
       <c r="D2" t="n">
-        <v>21.51333333333333</v>
+        <v>17.91</v>
       </c>
       <c r="E2" t="n">
-        <v>22.31666666666667</v>
+        <v>21.14083333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>23.17</v>
+        <v>22.32</v>
       </c>
       <c r="G2" t="n">
-        <v>34.51833333333334</v>
+        <v>23.21583333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>51.73666666666666</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>31.27777777777778</v>
+        <v>23.45833333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>14.37430789316158</v>
+        <v>3.992973193077425</v>
       </c>
       <c r="D3" t="n">
-        <v>22.32666666666666</v>
+        <v>19.48</v>
       </c>
       <c r="E3" t="n">
-        <v>23.075</v>
+        <v>20.28</v>
       </c>
       <c r="F3" t="n">
-        <v>26.005</v>
+        <v>22.475</v>
       </c>
       <c r="G3" t="n">
-        <v>30.025</v>
+        <v>25.2175</v>
       </c>
       <c r="H3" t="n">
-        <v>59.86666666666667</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>28.555</v>
+        <v>24.95958333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>8.642931280017859</v>
+        <v>4.920129188360681</v>
       </c>
       <c r="D4" t="n">
-        <v>22.37333333333333</v>
+        <v>20.43666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>23.22416666666667</v>
+        <v>22.71833333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>23.525</v>
+        <v>23.265</v>
       </c>
       <c r="G4" t="n">
-        <v>32.94833333333334</v>
+        <v>24.72</v>
       </c>
       <c r="H4" t="n">
-        <v>42.69333333333334</v>
+        <v>36.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>29.78611111111111</v>
+        <v>24.28083333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6063002620236</v>
+        <v>2.4887185138681</v>
       </c>
       <c r="D5" t="n">
         <v>21.31333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>22.95416666666667</v>
+        <v>22.36166666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>25.96666666666667</v>
+        <v>23.78</v>
       </c>
       <c r="G5" t="n">
-        <v>27.92666666666667</v>
+        <v>25.78416666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>54.94</v>
+        <v>28.13666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>31.56055555555556</v>
+        <v>26.79875</v>
       </c>
       <c r="C6" t="n">
-        <v>12.34117181842356</v>
+        <v>2.669226115479084</v>
       </c>
       <c r="D6" t="n">
         <v>23.60666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>24.7925</v>
+        <v>24.03416666666666</v>
       </c>
       <c r="F6" t="n">
-        <v>27.97666666666667</v>
+        <v>27.37</v>
       </c>
       <c r="G6" t="n">
-        <v>29.37083333333333</v>
+        <v>28.5525</v>
       </c>
       <c r="H6" t="n">
-        <v>56.23666666666667</v>
+        <v>30.21666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7546916290747838</v>
+        <v>0.7163667741937942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02213329037851561</v>
+        <v>0.003444820171540947</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,14 +676,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6911667743443932</v>
+        <v>0.8947531832701278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004982391134723384</v>
+        <v>0.2589229204192927</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7469476639772967</v>
+        <v>0.7540017220949502</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01859305472811178</v>
+        <v>0.009043496933388561</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -712,14 +712,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.693114904916051</v>
+        <v>0.921788380013931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005226316985155475</v>
+        <v>0.4445424759876878</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -730,14 +730,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6761790091705775</v>
+        <v>0.8866888723178986</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00343430658306146</v>
+        <v>0.217929061827722</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -829,37 +829,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.57858518518525</v>
+        <v>58.39412499999998</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>8.894646296296312</v>
+        <v>14.59853125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6056681800150576</v>
+        <v>1.783518024583567</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6631089044061329</v>
+        <v>0.160197056607881</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5208070724538193</v>
+        <v>0.2135481329585424</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009460047700090277</v>
+        <v>0.08414085383265053</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3624930805214367</v>
+        <v>0.3961137579405242</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000136374319489952</v>
+        <v>0.00143556968384238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009764529143224281</v>
+        <v>9.245319976200929e-05</v>
       </c>
     </row>
     <row r="3">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>293.7135081481474</v>
+        <v>229.1868483333332</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>14.68567540740737</v>
+        <v>8.185244583333327</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -949,132 +949,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>29.98722222222222</v>
+        <v>23.63375</v>
       </c>
       <c r="C2" t="n">
-        <v>14.19144348897087</v>
+        <v>6.266303127945883</v>
       </c>
       <c r="D2" t="n">
-        <v>18.44</v>
+        <v>17.21</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2575</v>
+        <v>20.1225</v>
       </c>
       <c r="F2" t="n">
-        <v>24.075</v>
+        <v>21.545</v>
       </c>
       <c r="G2" t="n">
-        <v>33.49</v>
+        <v>24.5225</v>
       </c>
       <c r="H2" t="n">
-        <v>76.69</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B3" t="n">
-        <v>31.27777777777777</v>
+        <v>23.45833333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>15.48823445509357</v>
+        <v>4.184366002225392</v>
       </c>
       <c r="D3" t="n">
-        <v>21.15</v>
+        <v>17.95</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3925</v>
+        <v>20.8525</v>
       </c>
       <c r="F3" t="n">
-        <v>24.905</v>
+        <v>22.275</v>
       </c>
       <c r="G3" t="n">
-        <v>32.285</v>
+        <v>24.8075</v>
       </c>
       <c r="H3" t="n">
-        <v>81.19</v>
+        <v>32.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>28.555</v>
+        <v>24.95958333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>8.971402441352517</v>
+        <v>5.519465537426662</v>
       </c>
       <c r="D4" t="n">
         <v>19.5</v>
       </c>
       <c r="E4" t="n">
-        <v>22.895</v>
+        <v>20.9275</v>
       </c>
       <c r="F4" t="n">
-        <v>23.81</v>
+        <v>23.445</v>
       </c>
       <c r="G4" t="n">
-        <v>35.18</v>
+        <v>26.565</v>
       </c>
       <c r="H4" t="n">
-        <v>50.03</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>29.78611111111111</v>
+        <v>24.28083333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>12.78126576576684</v>
+        <v>2.947935042447977</v>
       </c>
       <c r="D5" t="n">
-        <v>20.85</v>
+        <v>20.31</v>
       </c>
       <c r="E5" t="n">
-        <v>22.585</v>
+        <v>22.07</v>
       </c>
       <c r="F5" t="n">
-        <v>25.425</v>
+        <v>23.21</v>
       </c>
       <c r="G5" t="n">
-        <v>29.095</v>
+        <v>25.825</v>
       </c>
       <c r="H5" t="n">
-        <v>66.34</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>31.56055555555555</v>
+        <v>26.79875</v>
       </c>
       <c r="C6" t="n">
-        <v>11.99850209877796</v>
+        <v>3.135825683514838</v>
       </c>
       <c r="D6" t="n">
-        <v>22.78</v>
+        <v>21.94</v>
       </c>
       <c r="E6" t="n">
-        <v>24.4525</v>
+        <v>24.6125</v>
       </c>
       <c r="F6" t="n">
-        <v>26.315</v>
+        <v>26.05</v>
       </c>
       <c r="G6" t="n">
-        <v>31.7825</v>
+        <v>29.8525</v>
       </c>
       <c r="H6" t="n">
-        <v>61.91</v>
+        <v>31.97</v>
       </c>
     </row>
   </sheetData>
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7257044991167205</v>
+        <v>0.7847047530069846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001614660181827453</v>
+        <v>0.0001673692033081111</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6355715162992517</v>
+        <v>0.885726595235133</v>
       </c>
       <c r="C3" t="n">
-        <v>1.55759203509783e-05</v>
+        <v>0.01085791818431623</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8244761147869911</v>
+        <v>0.7951388109286868</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003440019657514799</v>
+        <v>0.0002455849901464685</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1179,14 +1179,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.661647462681684</v>
+        <v>0.9295638241842796</v>
       </c>
       <c r="C5" t="n">
-        <v>2.956257672537802e-05</v>
+        <v>0.0953227339558566</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1197,14 +1197,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6942039198335723</v>
+        <v>0.9315265259416193</v>
       </c>
       <c r="C6" t="n">
-        <v>6.84305168348469e-05</v>
+        <v>0.1054581796545388</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1296,37 +1296,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.57858518518525</v>
+        <v>58.39412499999998</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>8.894646296296312</v>
+        <v>14.59853125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6056681800150576</v>
+        <v>1.783518024583567</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6631089044061329</v>
+        <v>0.160197056607881</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5208070724538193</v>
+        <v>0.213548132958542</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009460047700090277</v>
+        <v>0.08414085383265053</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3624930805214367</v>
+        <v>0.3961137579405258</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001363743194899207</v>
+        <v>0.001435569683842339</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009764529143221594</v>
+        <v>9.245319976200382e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1336,13 +1336,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>293.7135081481474</v>
+        <v>229.1868483333332</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>14.68567540740737</v>
+        <v>8.185244583333327</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
